--- a/filters/net.sf.okapi.filters.openxml.tests/gold/Tagsample.xlsx
+++ b/filters/net.sf.okapi.filters.openxml.tests/gold/Tagsample.xlsx
@@ -18,34 +18,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>oremlay&lt;x0&gt;</t>
-  </si>
-  <si>
-    <t>ipsumhay&lt;x0&gt;</t>
-  </si>
-  <si>
-    <t>olorday&lt;x0&gt;</t>
-  </si>
-  <si>
-    <t>itsay&lt;x0&gt;</t>
-  </si>
-  <si>
-    <t>amethay&lt;x0&gt;</t>
-  </si>
-  <si>
-    <t>onsectetuercay&lt;x0&gt;</t>
-  </si>
-  <si>
-    <t>adipiscinghay&lt;x0&gt;</t>
-  </si>
-  <si>
-    <t>elithay&lt;x0&gt;</t>
-  </si>
-  <si>
-    <t>uncnay&lt;x0&gt;</t>
-  </si>
-  <si>
-    <t>athay&lt;x0&gt;</t>
+    <t>oremlay</t>
+  </si>
+  <si>
+    <t>ipsumhay</t>
+  </si>
+  <si>
+    <t>olorday</t>
+  </si>
+  <si>
+    <t>itsay</t>
+  </si>
+  <si>
+    <t>amethay</t>
+  </si>
+  <si>
+    <t>onsectetuercay</t>
+  </si>
+  <si>
+    <t>adipiscinghay</t>
+  </si>
+  <si>
+    <t>elithay</t>
+  </si>
+  <si>
+    <t>uncnay</t>
+  </si>
+  <si>
+    <t>athay</t>
   </si>
 </sst>
 </file>
@@ -385,83 +385,83 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0&lt;x0&gt;</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>111&lt;x0&gt;</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1&lt;x0&gt;</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>222&lt;x0&gt;</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2&lt;x0&gt;</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>333&lt;x0&gt;</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3&lt;x0&gt;</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>444&lt;x0&gt;</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4&lt;x0&gt;</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>555&lt;x0&gt;</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5&lt;x0&gt;</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>666&lt;x0&gt;</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6&lt;x0&gt;</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>777&lt;x0&gt;</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7&lt;x0&gt;</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>888&lt;x0&gt;</v>
+        <v>888</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8&lt;x0&gt;</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>999&lt;x0&gt;</v>
+        <v>999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9&lt;x0&gt;</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <f>SUM(B1:B9)</f>
-        <v>4995&lt;x0&gt;</v>
+        <v>4995</v>
       </c>
     </row>
   </sheetData>

--- a/filters/net.sf.okapi.filters.openxml.tests/gold/Tagsample.xlsx
+++ b/filters/net.sf.okapi.filters.openxml.tests/gold/Tagsample.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="480" yWindow="105" windowWidth="20055" windowHeight="12240"/>
   </bookViews>
   <sheets>
-    <sheet name="eetshay1" sheetId="1" r:id="rId1"/>
-    <sheet name="eetshay2" sheetId="2" r:id="rId2"/>
-    <sheet name="eetshay3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
